--- a/Templates/TourBookingStatsTemplate.xlsx
+++ b/Templates/TourBookingStatsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cuong\ky9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cuong\ky9\TripWiseAPI\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44FF1FB4-7B0A-4EEC-87F1-52C7BE35756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999872A-8497-4B2A-B4B0-5C97E9DA6A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23568" yWindow="1284" windowWidth="21600" windowHeight="11328" xr2:uid="{244D3EC5-3FAD-4BF2-8A5D-EFB8A704D56B}"/>
+    <workbookView xWindow="1380" yWindow="1530" windowWidth="21600" windowHeight="11325" xr2:uid="{244D3EC5-3FAD-4BF2-8A5D-EFB8A704D56B}"/>
   </bookViews>
   <sheets>
     <sheet name="TourBookingStats" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>TotalRevenue</t>
+  </si>
+  <si>
+    <t>TotalCancelled</t>
+  </si>
+  <si>
+    <t>CancelledRevenue</t>
   </si>
 </sst>
 </file>
@@ -394,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E8C78F-9FBE-4D12-B33D-F7F53DB6DAEC}">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,6 +426,12 @@
       </c>
       <c r="F2" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
